--- a/fuentes/contenidos/grado07/guion13/MA_07_13_CO_REC90.xlsx
+++ b/fuentes/contenidos/grado07/guion13/MA_07_13_CO_REC90.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado07\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8955" tabRatio="500"/>
@@ -16,8 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -619,7 +623,7 @@
     <t xml:space="preserve">Pirámide octagonal, con lado de base igual a 12 Cm, en la observación se adjunta una imagen para tener en cuenta. </t>
   </si>
   <si>
-    <t xml:space="preserve">Esta fila no se dejo modificar la descripción, por lo tanto se pasa a la sigueinte fila. </t>
+    <t>La misma del punto anterior</t>
   </si>
 </sst>
 </file>
@@ -1785,61 +1789,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1285876</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2089436</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>750094</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17633157" y="2285999"/>
-          <a:ext cx="803560" cy="619126"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>1502959</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>59532</xdr:rowOff>
@@ -1858,7 +1807,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1913,7 +1862,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1968,7 +1917,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect l="38753" t="24220" r="26757" b="19201"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2005,7 +1954,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2060,18 +2009,73 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="48129" t="17364" r="25406" b="8842"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18211437" y="7262814"/>
+          <a:off x="18211437" y="7096127"/>
           <a:ext cx="278969" cy="583406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1340876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2155030</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>819151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17688157" y="2381250"/>
+          <a:ext cx="814154" cy="592932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2107,7 +2111,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2115,6 +2119,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2148,7 +2166,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2156,6 +2174,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2189,7 +2221,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2197,6 +2229,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2230,7 +2276,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2238,6 +2284,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2271,7 +2331,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2279,6 +2339,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2312,7 +2386,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2320,6 +2394,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2353,7 +2441,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2361,6 +2449,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2696,9 +2798,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3303,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
